--- a/example2_optcor.xlsx
+++ b/example2_optcor.xlsx
@@ -10,6 +10,7 @@
     <sheet name="Corrected" sheetId="3" r:id="rId5"/>
     <sheet name="Normalized" sheetId="4" r:id="rId6"/>
     <sheet name="PoolAfterDF" sheetId="5" r:id="rId7"/>
+    <sheet name="logs" sheetId="6" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
@@ -17,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="114">
   <si>
     <t>label</t>
   </si>
@@ -179,6 +180,186 @@
   </si>
   <si>
     <t>sample6</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>metaGroupId</t>
+  </si>
+  <si>
+    <t>groupId</t>
+  </si>
+  <si>
+    <t>goodPeakCount</t>
+  </si>
+  <si>
+    <t>medMz</t>
+  </si>
+  <si>
+    <t>medRt</t>
+  </si>
+  <si>
+    <t>maxQuality</t>
+  </si>
+  <si>
+    <t>isotopeLabel</t>
+  </si>
+  <si>
+    <t>C12 PARENT</t>
+  </si>
+  <si>
+    <t>C13-label-1</t>
+  </si>
+  <si>
+    <t>C13-label-2</t>
+  </si>
+  <si>
+    <t>C13-label-3</t>
+  </si>
+  <si>
+    <t>C13-label-4</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>compoundId</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>formula</t>
+  </si>
+  <si>
+    <t>C4H6O5</t>
+  </si>
+  <si>
+    <t>expectedRtDiff</t>
+  </si>
+  <si>
+    <t>ppmDiff</t>
+  </si>
+  <si>
+    <t>parent</t>
+  </si>
+  <si>
+    <t>sample1</t>
+  </si>
+  <si>
+    <t>sample2</t>
+  </si>
+  <si>
+    <t>sample3</t>
+  </si>
+  <si>
+    <t>sample4</t>
+  </si>
+  <si>
+    <t>sample5</t>
+  </si>
+  <si>
+    <t>sample6</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>sample1</t>
+  </si>
+  <si>
+    <t>sample2</t>
+  </si>
+  <si>
+    <t>sample3</t>
+  </si>
+  <si>
+    <t>sample4</t>
+  </si>
+  <si>
+    <t>sample5</t>
+  </si>
+  <si>
+    <t>sample6</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>Label</t>
+  </si>
+  <si>
+    <t>sample1</t>
+  </si>
+  <si>
+    <t>sample2</t>
+  </si>
+  <si>
+    <t>sample3</t>
+  </si>
+  <si>
+    <t>sample4</t>
+  </si>
+  <si>
+    <t>sample5</t>
+  </si>
+  <si>
+    <t>sample6</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>malate</t>
+  </si>
+  <si>
+    <t>sample1</t>
+  </si>
+  <si>
+    <t>sample2</t>
+  </si>
+  <si>
+    <t>sample3</t>
+  </si>
+  <si>
+    <t>sample4</t>
+  </si>
+  <si>
+    <t>sample5</t>
+  </si>
+  <si>
+    <t>sample6</t>
+  </si>
+  <si>
+    <t>solver</t>
+  </si>
+  <si>
+    <t>purity</t>
+  </si>
+  <si>
+    <t>resolution</t>
+  </si>
+  <si>
+    <t>ppm</t>
+  </si>
+  <si>
+    <t>runtime</t>
+  </si>
+  <si>
+    <t>optcorr</t>
   </si>
 </sst>
 </file>
@@ -199,7 +380,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -211,16 +392,26 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -257,64 +448,64 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>1</v>
+        <v>55</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>3</v>
+        <v>57</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>4</v>
+        <v>58</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>7</v>
+        <v>61</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>15</v>
+        <v>69</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>21</v>
+        <v>75</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>22</v>
+        <v>76</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>24</v>
+        <v>78</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>25</v>
+        <v>79</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>26</v>
+        <v>80</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
@@ -338,16 +529,16 @@
         <v>0.82511599999999996</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>8</v>
+        <v>62</v>
       </c>
       <c r="I2" s="0" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="J2" s="0" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K2" s="0" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="L2" s="0">
         <v>0.57199999999999995</v>
@@ -398,16 +589,16 @@
         <v>0.83560000000000001</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="I3" s="0" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="J3" s="0" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K3" s="0" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="L3" s="0">
         <v>0.57299999999999995</v>
@@ -458,16 +649,16 @@
         <v>0.82877400000000001</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
       <c r="I4" s="0" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="J4" s="0" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="L4" s="0">
         <v>0.57199999999999995</v>
@@ -518,16 +709,16 @@
         <v>0.83857400000000004</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="I5" s="0" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="J5" s="0" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="L5" s="0">
         <v>0.57699999999999996</v>
@@ -578,16 +769,16 @@
         <v>0.83599100000000004</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>12</v>
+        <v>66</v>
       </c>
       <c r="I6" s="0" t="s">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="J6" s="0" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="L6" s="0">
         <v>0.58199999999999996</v>
@@ -638,158 +829,158 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>30</v>
+        <v>84</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>32</v>
+        <v>86</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>33</v>
+        <v>87</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>35</v>
+        <v>89</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>36</v>
+        <v>90</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>27165610.925045852</v>
+        <v>27124615.93765815</v>
       </c>
       <c r="D2" s="0">
-        <v>39202265.121319331</v>
+        <v>39143096.974471189</v>
       </c>
       <c r="E2" s="0">
-        <v>26993630.521339975</v>
+        <v>26952896.289438937</v>
       </c>
       <c r="F2" s="0">
-        <v>11373920.886887517</v>
+        <v>11356733.143402042</v>
       </c>
       <c r="G2" s="0">
-        <v>17548502.215684894</v>
+        <v>17521967.037179444</v>
       </c>
       <c r="H2" s="0">
-        <v>17467199.657826632</v>
+        <v>17440799.969836958</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B3" s="0">
         <v>1</v>
       </c>
       <c r="C3" s="0">
-        <v>4579917.7050068527</v>
+        <v>4615669.5820185514</v>
       </c>
       <c r="D3" s="0">
-        <v>5473658.2028389014</v>
+        <v>5526537.2713224366</v>
       </c>
       <c r="E3" s="0">
-        <v>4189706.7351931622</v>
+        <v>4225642.3788505234</v>
       </c>
       <c r="F3" s="0">
-        <v>8862855.519704476</v>
+        <v>8869941.0654416699</v>
       </c>
       <c r="G3" s="0">
-        <v>18399992.219449867</v>
+        <v>18405549.062648293</v>
       </c>
       <c r="H3" s="0">
-        <v>14781976.0268445</v>
+        <v>14791524.739797054</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B4" s="0">
         <v>2</v>
       </c>
       <c r="C4" s="0">
-        <v>2622882.4689276633</v>
+        <v>2626110.2295785537</v>
       </c>
       <c r="D4" s="0">
-        <v>2839160.8584463331</v>
+        <v>2843239.6165311886</v>
       </c>
       <c r="E4" s="0">
-        <v>2245208.43968772</v>
+        <v>2248276.6633403036</v>
       </c>
       <c r="F4" s="0">
-        <v>7925228.674583653</v>
+        <v>7929278.0899684448</v>
       </c>
       <c r="G4" s="0">
-        <v>18479464.887151726</v>
+        <v>18486321.550155826</v>
       </c>
       <c r="H4" s="0">
-        <v>13822144.960825244</v>
+        <v>13828434.712488767</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B5" s="0">
         <v>3</v>
       </c>
       <c r="C5" s="0">
-        <v>1156480.8650075535</v>
+        <v>1158054.1991937698</v>
       </c>
       <c r="D5" s="0">
-        <v>1772427.6097885333</v>
+        <v>1773945.3968971909</v>
       </c>
       <c r="E5" s="0">
-        <v>1194033.7606471097</v>
+        <v>1195308.3693457516</v>
       </c>
       <c r="F5" s="0">
-        <v>5327849.9402265539</v>
+        <v>5331860.8828744236</v>
       </c>
       <c r="G5" s="0">
-        <v>13940705.540788634</v>
+        <v>13949468.279744884</v>
       </c>
       <c r="H5" s="0">
-        <v>9930792.2056452166</v>
+        <v>9937551.3175618947</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>29</v>
+        <v>83</v>
       </c>
       <c r="B6" s="0">
         <v>4</v>
       </c>
       <c r="C6" s="0">
-        <v>105658.23909410487</v>
+        <v>106100.19669463292</v>
       </c>
       <c r="D6" s="0">
-        <v>134494.26373412847</v>
+        <v>135186.7945610942</v>
       </c>
       <c r="E6" s="0">
-        <v>99287.821608095066</v>
+        <v>99743.593150817411</v>
       </c>
       <c r="F6" s="0">
-        <v>1678161.7650706784</v>
+        <v>1680203.6635350587</v>
       </c>
       <c r="G6" s="0">
-        <v>5729750.4197098073</v>
+        <v>5735109.2012338359</v>
       </c>
       <c r="H6" s="0">
-        <v>2968415.8867148822</v>
+        <v>2972218.1773711625</v>
       </c>
     </row>
   </sheetData>
@@ -813,158 +1004,158 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>37</v>
+        <v>91</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>39</v>
+        <v>93</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>40</v>
+        <v>94</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>42</v>
+        <v>96</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>44</v>
+        <v>98</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B2" s="0">
         <v>0</v>
       </c>
       <c r="C2" s="0">
-        <v>0.76241999999999999</v>
+        <v>0.76127</v>
       </c>
       <c r="D2" s="0">
-        <v>0.79320999999999997</v>
+        <v>0.79200999999999999</v>
       </c>
       <c r="E2" s="0">
-        <v>0.77742</v>
+        <v>0.77625</v>
       </c>
       <c r="F2" s="0">
-        <v>0.32340999999999998</v>
+        <v>0.32291999999999998</v>
       </c>
       <c r="G2" s="0">
-        <v>0.23682</v>
+        <v>0.23646</v>
       </c>
       <c r="H2" s="0">
-        <v>0.29620000000000002</v>
+        <v>0.29575000000000001</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B3" s="0">
         <v>1</v>
       </c>
       <c r="C3" s="0">
-        <v>0.12853000000000001</v>
+        <v>0.12953999999999999</v>
       </c>
       <c r="D3" s="0">
-        <v>0.11075</v>
+        <v>0.11182</v>
       </c>
       <c r="E3" s="0">
-        <v>0.12066</v>
+        <v>0.12169000000000001</v>
       </c>
       <c r="F3" s="0">
-        <v>0.25201000000000001</v>
+        <v>0.25220999999999999</v>
       </c>
       <c r="G3" s="0">
-        <v>0.24831</v>
+        <v>0.24839</v>
       </c>
       <c r="H3" s="0">
-        <v>0.25065999999999999</v>
+        <v>0.25081999999999999</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B4" s="0">
         <v>2</v>
       </c>
       <c r="C4" s="0">
-        <v>0.073609999999999995</v>
+        <v>0.073700000000000002</v>
       </c>
       <c r="D4" s="0">
-        <v>0.057439999999999998</v>
+        <v>0.057520000000000002</v>
       </c>
       <c r="E4" s="0">
-        <v>0.064659999999999995</v>
+        <v>0.064750000000000002</v>
       </c>
       <c r="F4" s="0">
-        <v>0.22534999999999999</v>
+        <v>0.22545999999999999</v>
       </c>
       <c r="G4" s="0">
-        <v>0.24939</v>
+        <v>0.24948000000000001</v>
       </c>
       <c r="H4" s="0">
-        <v>0.23438999999999999</v>
+        <v>0.23449</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B5" s="0">
         <v>3</v>
       </c>
       <c r="C5" s="0">
-        <v>0.03245</v>
+        <v>0.032500000000000001</v>
       </c>
       <c r="D5" s="0">
-        <v>0.035860000000000003</v>
+        <v>0.035889999999999998</v>
       </c>
       <c r="E5" s="0">
-        <v>0.034380000000000001</v>
+        <v>0.034419999999999999</v>
       </c>
       <c r="F5" s="0">
-        <v>0.15149000000000001</v>
+        <v>0.15160999999999999</v>
       </c>
       <c r="G5" s="0">
-        <v>0.18812999999999999</v>
+        <v>0.18825</v>
       </c>
       <c r="H5" s="0">
-        <v>0.16839999999999999</v>
+        <v>0.16850999999999999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="B6" s="0">
         <v>4</v>
       </c>
       <c r="C6" s="0">
-        <v>0.00296</v>
+        <v>0.00297</v>
       </c>
       <c r="D6" s="0">
-        <v>0.0027200000000000002</v>
+        <v>0.0027299999999999998</v>
       </c>
       <c r="E6" s="0">
-        <v>0.0028500000000000001</v>
+        <v>0.0028700000000000002</v>
       </c>
       <c r="F6" s="0">
-        <v>0.047710000000000002</v>
+        <v>0.04777</v>
       </c>
       <c r="G6" s="0">
-        <v>0.07732</v>
+        <v>0.07739</v>
       </c>
       <c r="H6" s="0">
-        <v>0.05033</v>
+        <v>0.0504</v>
       </c>
     </row>
   </sheetData>
@@ -987,30 +1178,30 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>49</v>
+        <v>103</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>50</v>
+        <v>104</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>52</v>
+        <v>106</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>47</v>
+        <v>101</v>
       </c>
       <c r="B2" s="0">
         <v>35630550.210000001</v>
@@ -1029,6 +1220,59 @@
       </c>
       <c r="G2" s="0">
         <v>58970529</v>
+      </c>
+    </row>
+  </sheetData>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="9.37890625" customWidth="true"/>
+    <col min="2" max="2" width="7.26953125" customWidth="true"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="0" t="s">
+        <v>108</v>
+      </c>
+      <c r="B1" s="0" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" s="0">
+        <v>0.98999999999999999</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
+        <v>110</v>
+      </c>
+      <c r="B3" s="0">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
+        <v>111</v>
+      </c>
+      <c r="B4" s="0">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="B5" s="0">
+        <v>17.6821725</v>
       </c>
     </row>
   </sheetData>
